--- a/alg_20210506/simulation.xlsx
+++ b/alg_20210506/simulation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\git\ntunhs_2020\alg_20210506\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0D505A-0E17-4843-A4D9-400F492EAA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7A6A26-B015-450D-9DEA-2A0727A8F63A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{974164D5-CBD2-4BB2-A5E2-3C6EB98CB229}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{974164D5-CBD2-4BB2-A5E2-3C6EB98CB229}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1798,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D270DA5-D19F-4A19-8401-31C7C00E0F00}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1906,7 +1906,7 @@
   <dimension ref="A1:D2001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -31941,8 +31941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC83CE0-E895-46D5-A4C4-C48D0441F1BA}">
   <dimension ref="A1:E2004"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -31998,11 +31998,11 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f ca="1">(C5/2000)*100+D5:CC49</f>
+        <f>(C5/2000)*100</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f ca="1">SUM(D$5:D5)</f>
+        <f>SUM(D$5:D5)</f>
         <v>0</v>
       </c>
     </row>
@@ -32021,7 +32021,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f ca="1">SUM(D$5:D6)</f>
+        <f>SUM(D$5:D6)</f>
         <v>0</v>
       </c>
     </row>
@@ -32040,7 +32040,7 @@
         <v>0.05</v>
       </c>
       <c r="E7">
-        <f ca="1">SUM(D$5:D7)</f>
+        <f>SUM(D$5:D7)</f>
         <v>0.05</v>
       </c>
     </row>
@@ -32059,7 +32059,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f ca="1">SUM(D$5:D8)</f>
+        <f>SUM(D$5:D8)</f>
         <v>0.05</v>
       </c>
     </row>
@@ -32078,7 +32078,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f ca="1">SUM(D$5:D9)</f>
+        <f>SUM(D$5:D9)</f>
         <v>0.05</v>
       </c>
     </row>
@@ -32097,7 +32097,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f ca="1">SUM(D$5:D10)</f>
+        <f>SUM(D$5:D10)</f>
         <v>0.05</v>
       </c>
     </row>
@@ -32116,7 +32116,7 @@
         <v>0.1</v>
       </c>
       <c r="E11">
-        <f ca="1">SUM(D$5:D11)</f>
+        <f>SUM(D$5:D11)</f>
         <v>0.15000000000000002</v>
       </c>
     </row>
@@ -32135,7 +32135,7 @@
         <v>0.05</v>
       </c>
       <c r="E12">
-        <f ca="1">SUM(D$5:D12)</f>
+        <f>SUM(D$5:D12)</f>
         <v>0.2</v>
       </c>
     </row>
@@ -32154,7 +32154,7 @@
         <v>0.15</v>
       </c>
       <c r="E13">
-        <f ca="1">SUM(D$5:D13)</f>
+        <f>SUM(D$5:D13)</f>
         <v>0.35</v>
       </c>
     </row>
@@ -32173,7 +32173,7 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="E14">
-        <f ca="1">SUM(D$5:D14)</f>
+        <f>SUM(D$5:D14)</f>
         <v>0.79999999999999993</v>
       </c>
     </row>
@@ -32192,7 +32192,7 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="E15">
-        <f ca="1">SUM(D$5:D15)</f>
+        <f>SUM(D$5:D15)</f>
         <v>1.25</v>
       </c>
     </row>
@@ -32211,7 +32211,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="E16">
-        <f ca="1">SUM(D$5:D16)</f>
+        <f>SUM(D$5:D16)</f>
         <v>1.9500000000000002</v>
       </c>
     </row>
@@ -32230,7 +32230,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E17">
-        <f ca="1">SUM(D$5:D17)</f>
+        <f>SUM(D$5:D17)</f>
         <v>3.1</v>
       </c>
     </row>
@@ -32249,7 +32249,7 @@
         <v>1.7999999999999998</v>
       </c>
       <c r="E18">
-        <f ca="1">SUM(D$5:D18)</f>
+        <f>SUM(D$5:D18)</f>
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -32268,7 +32268,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <f ca="1">SUM(D$5:D19)</f>
+        <f>SUM(D$5:D19)</f>
         <v>6.9</v>
       </c>
     </row>
@@ -32287,7 +32287,7 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="E20">
-        <f ca="1">SUM(D$5:D20)</f>
+        <f>SUM(D$5:D20)</f>
         <v>9.7000000000000011</v>
       </c>
     </row>
@@ -32306,7 +32306,7 @@
         <v>3.55</v>
       </c>
       <c r="E21">
-        <f ca="1">SUM(D$5:D21)</f>
+        <f>SUM(D$5:D21)</f>
         <v>13.25</v>
       </c>
     </row>
@@ -32325,7 +32325,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="E22">
-        <f ca="1">SUM(D$5:D22)</f>
+        <f>SUM(D$5:D22)</f>
         <v>17.600000000000001</v>
       </c>
     </row>
@@ -32344,7 +32344,7 @@
         <v>4.95</v>
       </c>
       <c r="E23">
-        <f ca="1">SUM(D$5:D23)</f>
+        <f>SUM(D$5:D23)</f>
         <v>22.55</v>
       </c>
     </row>
@@ -32363,7 +32363,7 @@
         <v>5.7</v>
       </c>
       <c r="E24">
-        <f ca="1">SUM(D$5:D24)</f>
+        <f>SUM(D$5:D24)</f>
         <v>28.25</v>
       </c>
     </row>
@@ -32382,7 +32382,7 @@
         <v>7.35</v>
       </c>
       <c r="E25">
-        <f ca="1">SUM(D$5:D25)</f>
+        <f>SUM(D$5:D25)</f>
         <v>35.6</v>
       </c>
     </row>
@@ -32401,7 +32401,7 @@
         <v>6.7</v>
       </c>
       <c r="E26">
-        <f ca="1">SUM(D$5:D26)</f>
+        <f>SUM(D$5:D26)</f>
         <v>42.300000000000004</v>
       </c>
     </row>
@@ -32420,7 +32420,7 @@
         <v>8.85</v>
       </c>
       <c r="E27">
-        <f ca="1">SUM(D$5:D27)</f>
+        <f>SUM(D$5:D27)</f>
         <v>51.150000000000006</v>
       </c>
     </row>
@@ -32439,7 +32439,7 @@
         <v>6.45</v>
       </c>
       <c r="E28">
-        <f ca="1">SUM(D$5:D28)</f>
+        <f>SUM(D$5:D28)</f>
         <v>57.600000000000009</v>
       </c>
     </row>
@@ -32458,7 +32458,7 @@
         <v>7.3999999999999995</v>
       </c>
       <c r="E29">
-        <f ca="1">SUM(D$5:D29)</f>
+        <f>SUM(D$5:D29)</f>
         <v>65.000000000000014</v>
       </c>
     </row>
@@ -32477,7 +32477,7 @@
         <v>6.9</v>
       </c>
       <c r="E30">
-        <f ca="1">SUM(D$5:D30)</f>
+        <f>SUM(D$5:D30)</f>
         <v>71.90000000000002</v>
       </c>
     </row>
@@ -32496,7 +32496,7 @@
         <v>5.65</v>
       </c>
       <c r="E31">
-        <f ca="1">SUM(D$5:D31)</f>
+        <f>SUM(D$5:D31)</f>
         <v>77.550000000000026</v>
       </c>
     </row>
@@ -32515,7 +32515,7 @@
         <v>5.3</v>
       </c>
       <c r="E32">
-        <f ca="1">SUM(D$5:D32)</f>
+        <f>SUM(D$5:D32)</f>
         <v>82.850000000000023</v>
       </c>
     </row>
@@ -32534,7 +32534,7 @@
         <v>4.2</v>
       </c>
       <c r="E33">
-        <f ca="1">SUM(D$5:D33)</f>
+        <f>SUM(D$5:D33)</f>
         <v>87.050000000000026</v>
       </c>
     </row>
@@ -32553,7 +32553,7 @@
         <v>3.25</v>
       </c>
       <c r="E34">
-        <f ca="1">SUM(D$5:D34)</f>
+        <f>SUM(D$5:D34)</f>
         <v>90.300000000000026</v>
       </c>
     </row>
@@ -32572,7 +32572,7 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="E35">
-        <f ca="1">SUM(D$5:D35)</f>
+        <f>SUM(D$5:D35)</f>
         <v>93.200000000000031</v>
       </c>
     </row>
@@ -32591,7 +32591,7 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="E36">
-        <f ca="1">SUM(D$5:D36)</f>
+        <f>SUM(D$5:D36)</f>
         <v>96.100000000000037</v>
       </c>
     </row>
@@ -32610,7 +32610,7 @@
         <v>1.4500000000000002</v>
       </c>
       <c r="E37">
-        <f ca="1">SUM(D$5:D37)</f>
+        <f>SUM(D$5:D37)</f>
         <v>97.55000000000004</v>
       </c>
     </row>
@@ -32629,7 +32629,7 @@
         <v>1.05</v>
       </c>
       <c r="E38">
-        <f ca="1">SUM(D$5:D38)</f>
+        <f>SUM(D$5:D38)</f>
         <v>98.600000000000037</v>
       </c>
     </row>
@@ -32648,7 +32648,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="E39">
-        <f ca="1">SUM(D$5:D39)</f>
+        <f>SUM(D$5:D39)</f>
         <v>99.150000000000034</v>
       </c>
     </row>
@@ -32667,7 +32667,7 @@
         <v>0.4</v>
       </c>
       <c r="E40">
-        <f ca="1">SUM(D$5:D40)</f>
+        <f>SUM(D$5:D40)</f>
         <v>99.55000000000004</v>
       </c>
     </row>
@@ -32686,7 +32686,7 @@
         <v>0.2</v>
       </c>
       <c r="E41">
-        <f ca="1">SUM(D$5:D41)</f>
+        <f>SUM(D$5:D41)</f>
         <v>99.750000000000043</v>
       </c>
     </row>
@@ -32705,7 +32705,7 @@
         <v>0.1</v>
       </c>
       <c r="E42">
-        <f ca="1">SUM(D$5:D42)</f>
+        <f>SUM(D$5:D42)</f>
         <v>99.850000000000037</v>
       </c>
     </row>
@@ -32724,7 +32724,7 @@
         <v>0.05</v>
       </c>
       <c r="E43">
-        <f ca="1">SUM(D$5:D43)</f>
+        <f>SUM(D$5:D43)</f>
         <v>99.900000000000034</v>
       </c>
     </row>
@@ -32743,7 +32743,7 @@
         <v>0.05</v>
       </c>
       <c r="E44">
-        <f ca="1">SUM(D$5:D44)</f>
+        <f>SUM(D$5:D44)</f>
         <v>99.950000000000031</v>
       </c>
     </row>
@@ -32762,7 +32762,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <f ca="1">SUM(D$5:D45)</f>
+        <f>SUM(D$5:D45)</f>
         <v>99.950000000000031</v>
       </c>
     </row>
@@ -32781,7 +32781,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <f ca="1">SUM(D$5:D46)</f>
+        <f>SUM(D$5:D46)</f>
         <v>99.950000000000031</v>
       </c>
     </row>
@@ -32800,7 +32800,7 @@
         <v>0.05</v>
       </c>
       <c r="E47">
-        <f ca="1">SUM(D$5:D47)</f>
+        <f>SUM(D$5:D47)</f>
         <v>100.00000000000003</v>
       </c>
     </row>
@@ -32819,7 +32819,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <f ca="1">SUM(D$5:D48)</f>
+        <f>SUM(D$5:D48)</f>
         <v>100.00000000000003</v>
       </c>
     </row>
@@ -32838,7 +32838,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <f ca="1">SUM(D$5:D49)</f>
+        <f>SUM(D$5:D49)</f>
         <v>100.00000000000003</v>
       </c>
     </row>
@@ -42620,7 +42620,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
